--- a/dados/ADD/Dados_ADD_PF/metricas_retencao_trimestral.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_retencao_trimestral.xlsx
@@ -1375,13 +1375,13 @@
         <v>16</v>
       </c>
       <c r="C55">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D55">
         <v>140</v>
       </c>
       <c r="E55">
-        <v>0.08571428571428572</v>
+        <v>0.09285714285714286</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2361,13 +2361,13 @@
         <v>12</v>
       </c>
       <c r="C113">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D113">
         <v>87</v>
       </c>
       <c r="E113">
-        <v>0.2068965517241379</v>
+        <v>0.2298850574712644</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -3517,13 +3517,13 @@
         <v>4</v>
       </c>
       <c r="C181">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D181">
         <v>47</v>
       </c>
       <c r="E181">
-        <v>0.4680851063829787</v>
+        <v>0.4893617021276596</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -3585,13 +3585,13 @@
         <v>3</v>
       </c>
       <c r="C185">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D185">
         <v>78</v>
       </c>
       <c r="E185">
-        <v>0.4743589743589743</v>
+        <v>0.4871794871794872</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -3636,13 +3636,13 @@
         <v>2</v>
       </c>
       <c r="C188">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D188">
         <v>43</v>
       </c>
       <c r="E188">
-        <v>0.3255813953488372</v>
+        <v>0.3488372093023256</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -3670,13 +3670,13 @@
         <v>1</v>
       </c>
       <c r="C190">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D190">
         <v>38</v>
       </c>
       <c r="E190">
-        <v>0.4736842105263158</v>
+        <v>0.5263157894736842</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -3687,10 +3687,10 @@
         <v>0</v>
       </c>
       <c r="C191">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D191">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E191">
         <v>1</v>
